--- a/employee.xlsx
+++ b/employee.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shail\OneDrive\Desktop\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E3E401-BF76-49E0-AEBD-57BD0910B414}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0CEA77-ED26-4B78-9636-E5B491A1910B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -398,7 +398,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/employee.xlsx
+++ b/employee.xlsx
@@ -8,24 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shail\OneDrive\Desktop\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0CEA77-ED26-4B78-9636-E5B491A1910B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A443D448-2280-4AFA-A6B5-C626F43FF27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>id</t>
   </si>
@@ -55,13 +66,16 @@
   </si>
   <si>
     <t>Ryan</t>
+  </si>
+  <si>
+    <t>annual salary</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,6 +90,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -85,7 +106,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -108,13 +129,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -406,9 +440,10 @@
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -418,8 +453,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="D1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>101</v>
       </c>
@@ -429,8 +467,12 @@
       <c r="C2" s="1">
         <v>23000</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="D2" s="3">
+        <f>C2*12</f>
+        <v>276000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>102</v>
       </c>
@@ -440,8 +482,12 @@
       <c r="C3" s="1">
         <v>45800</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="D3" s="3">
+        <f t="shared" ref="D3:D8" si="0">C3*12</f>
+        <v>549600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>103</v>
       </c>
@@ -451,8 +497,12 @@
       <c r="C4" s="1">
         <v>51000</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="D4" s="3">
+        <f t="shared" si="0"/>
+        <v>612000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>104</v>
       </c>
@@ -462,8 +512,12 @@
       <c r="C5" s="1">
         <v>67000</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="D5" s="3">
+        <f t="shared" si="0"/>
+        <v>804000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>105</v>
       </c>
@@ -473,8 +527,12 @@
       <c r="C6" s="1">
         <v>98760</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="D6" s="3">
+        <f t="shared" si="0"/>
+        <v>1185120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>106</v>
       </c>
@@ -484,8 +542,12 @@
       <c r="C7" s="1">
         <v>56430</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="D7" s="3">
+        <f t="shared" si="0"/>
+        <v>677160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>107</v>
       </c>
@@ -494,6 +556,10 @@
       </c>
       <c r="C8" s="1">
         <v>77000</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" si="0"/>
+        <v>924000</v>
       </c>
     </row>
   </sheetData>
